--- a/Example input/Kansas/kansas inputs.xlsx
+++ b/Example input/Kansas/kansas inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7161561E-B5EC-4D0A-BA90-5B0B9341B064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65683B-9837-49ED-8DC5-4A4DC4413095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="2076" windowWidth="12792" windowHeight="8280" tabRatio="824" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24576" yWindow="1908" windowWidth="17856" windowHeight="9912" tabRatio="824" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="Init" sheetId="2" r:id="rId10"/>
     <sheet name="Soil" sheetId="6" r:id="rId11"/>
     <sheet name="Solute" sheetId="15" r:id="rId12"/>
-    <sheet name="Time" sheetId="4" r:id="rId13"/>
-    <sheet name="Variety" sheetId="10" r:id="rId14"/>
-    <sheet name="Weather" sheetId="7" r:id="rId15"/>
-    <sheet name="MulchDecomp" sheetId="18" r:id="rId16"/>
+    <sheet name="Gas" sheetId="19" r:id="rId13"/>
+    <sheet name="Time" sheetId="4" r:id="rId14"/>
+    <sheet name="Variety" sheetId="10" r:id="rId15"/>
+    <sheet name="Weather" sheetId="7" r:id="rId16"/>
+    <sheet name="MulchDecomp" sheetId="18" r:id="rId17"/>
+    <sheet name="MulchGeo" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -302,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -1082,6 +1084,60 @@
   </si>
   <si>
     <t>KansasWea.csv</t>
+  </si>
+  <si>
+    <t>bTort</t>
+  </si>
+  <si>
+    <t>Gas_CO2</t>
+  </si>
+  <si>
+    <t>Diffusion_Coeff(cm2/day)</t>
+  </si>
+  <si>
+    <t>GasCO2Default</t>
+  </si>
+  <si>
+    <t>Min_Hori_Size</t>
+  </si>
+  <si>
+    <t>Diffusion_Restriction</t>
+  </si>
+  <si>
+    <t>LongWaveRadiationCtrl</t>
+  </si>
+  <si>
+    <t>Decomposition_ctrl</t>
+  </si>
+  <si>
+    <t>DeltaRshort</t>
+  </si>
+  <si>
+    <t>DeltaRlong</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>epsilon_mulch</t>
+  </si>
+  <si>
+    <t>alpha_mulch</t>
+  </si>
+  <si>
+    <t>MaxStep in Picard Iteration</t>
+  </si>
+  <si>
+    <t>Tolerance_head</t>
+  </si>
+  <si>
+    <t>rho_mulch</t>
+  </si>
+  <si>
+    <t>pore_space</t>
+  </si>
+  <si>
+    <t>MaxPondingDepth</t>
   </si>
 </sst>
 </file>
@@ -1662,10 +1718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,9 +1738,10 @@
     <col min="12" max="12" width="18.109375" customWidth="1"/>
     <col min="14" max="14" width="14.109375" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1736,8 +1793,11 @@
       <c r="Q1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1786,8 +1846,11 @@
       <c r="Q2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1836,8 +1899,11 @@
       <c r="Q3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1886,8 +1952,11 @@
       <c r="Q4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1936,8 +2005,11 @@
       <c r="Q5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1986,8 +2058,11 @@
       <c r="Q6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2036,8 +2111,11 @@
       <c r="Q7" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2089,8 +2167,11 @@
       <c r="Q8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2142,8 +2223,11 @@
       <c r="Q9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2195,8 +2279,11 @@
       <c r="Q10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2248,8 +2335,12 @@
       <c r="Q11" t="s">
         <v>240</v>
       </c>
+      <c r="S11" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14009,7 +14100,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14058,6 +14149,53 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558FADBF-76C4-4D91-8CE7-6DF079B1F138}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.65</v>
+      </c>
+      <c r="D2">
+        <v>11920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K11"/>
@@ -14466,7 +14604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD17"/>
@@ -15152,12 +15290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -15291,7 +15429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9600C260-045B-494F-96B8-C4B2D07CC3E3}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L2"/>
@@ -15391,6 +15529,116 @@
       </c>
       <c r="L2" s="33">
         <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF59C2-B851-4956-A7BA-5B8FBABCF390}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="M2">
+        <v>400000</v>
+      </c>
+      <c r="N2">
+        <v>0.8</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18740,195 +18988,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="562d1dd5ad8dfb6d09dfa11834733c42">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7128e87dc4ae7544fa3e3576daab8407" ns2:_="">
-    <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993CC009-B340-4EE6-9B5D-5A685D71DEDD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4133A7E8-B5BC-4E0A-839E-3C527AB3FB88}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A202E45B-F7F6-4574-9F3E-D3DADF6E2D2F}"/>
 </file>
--- a/Example input/Kansas/kansas inputs.xlsx
+++ b/Example input/Kansas/kansas inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65683B-9837-49ED-8DC5-4A4DC4413095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09032902-46FF-48DF-BC2A-66535539441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24576" yWindow="1908" windowWidth="17856" windowHeight="9912" tabRatio="824" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1764" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -13,19 +13,18 @@
     <sheet name="Climate" sheetId="8" r:id="rId3"/>
     <sheet name="Fertilization" sheetId="1" r:id="rId4"/>
     <sheet name="GridRatio" sheetId="11" r:id="rId5"/>
-    <sheet name="GridX" sheetId="12" r:id="rId6"/>
-    <sheet name="Irrig" sheetId="3" r:id="rId7"/>
-    <sheet name="Drip" sheetId="16" r:id="rId8"/>
-    <sheet name="DripNodes" sheetId="17" r:id="rId9"/>
-    <sheet name="Init" sheetId="2" r:id="rId10"/>
-    <sheet name="Soil" sheetId="6" r:id="rId11"/>
-    <sheet name="Solute" sheetId="15" r:id="rId12"/>
-    <sheet name="Gas" sheetId="19" r:id="rId13"/>
-    <sheet name="Time" sheetId="4" r:id="rId14"/>
-    <sheet name="Variety" sheetId="10" r:id="rId15"/>
-    <sheet name="Weather" sheetId="7" r:id="rId16"/>
-    <sheet name="MulchDecomp" sheetId="18" r:id="rId17"/>
-    <sheet name="MulchGeo" sheetId="20" r:id="rId18"/>
+    <sheet name="Irrig" sheetId="3" r:id="rId6"/>
+    <sheet name="Drip" sheetId="16" r:id="rId7"/>
+    <sheet name="DripNodes" sheetId="17" r:id="rId8"/>
+    <sheet name="Init" sheetId="2" r:id="rId9"/>
+    <sheet name="Soil" sheetId="6" r:id="rId10"/>
+    <sheet name="Solute" sheetId="15" r:id="rId11"/>
+    <sheet name="Gas" sheetId="19" r:id="rId12"/>
+    <sheet name="Time" sheetId="4" r:id="rId13"/>
+    <sheet name="Variety" sheetId="10" r:id="rId14"/>
+    <sheet name="Weather" sheetId="7" r:id="rId15"/>
+    <sheet name="MulchDecomp" sheetId="18" r:id="rId16"/>
+    <sheet name="MulchGeo" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -46,40 +45,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-distance in cm from plant. Total distance is 1/2 row spacing. The x dimesion of the grid is developed from this</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -152,7 +117,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -304,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="276">
   <si>
     <t>Date</t>
   </si>
@@ -321,15 +286,6 @@
     <t>EndDate</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>sowing</t>
   </si>
   <si>
@@ -594,9 +550,6 @@
     <t>AvgCO2</t>
   </si>
   <si>
-    <t>RowAngle</t>
-  </si>
-  <si>
     <t>Xseed</t>
   </si>
   <si>
@@ -669,9 +622,6 @@
     <t>IR2</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>PlantingDepth</t>
   </si>
   <si>
@@ -993,9 +943,6 @@
     <t>VelZ</t>
   </si>
   <si>
-    <t>soilfile</t>
-  </si>
-  <si>
     <t>soilFile</t>
   </si>
   <si>
@@ -1138,6 +1085,18 @@
   </si>
   <si>
     <t>MaxPondingDepth</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>rowAngle</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1680,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1743,600 +1702,600 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" t="s">
         <v>182</v>
       </c>
-      <c r="N1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" t="s">
-        <v>187</v>
-      </c>
       <c r="P1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O8" s="1">
         <v>38597</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O9" s="1">
         <v>38597</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="O10" s="1">
         <v>38957</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="O11" s="1">
         <v>38957</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2346,662 +2305,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13" style="16" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.109375" style="11"/>
-    <col min="16" max="16" width="14.109375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="14" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>69167</v>
-      </c>
-      <c r="C2">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="D2">
-        <v>96.62</v>
-      </c>
-      <c r="E2">
-        <v>602</v>
-      </c>
-      <c r="F2" s="1">
-        <v>38477</v>
-      </c>
-      <c r="G2" s="1">
-        <v>38477</v>
-      </c>
-      <c r="H2" s="1">
-        <v>38657</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
-        <v>8</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>1</v>
-      </c>
-      <c r="R2" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>78736</v>
-      </c>
-      <c r="C3">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="D3">
-        <v>96.62</v>
-      </c>
-      <c r="E3">
-        <v>602</v>
-      </c>
-      <c r="F3" s="1">
-        <v>38848</v>
-      </c>
-      <c r="G3" s="1">
-        <v>38848</v>
-      </c>
-      <c r="H3" s="1">
-        <v>39022</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>8</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>66900</v>
-      </c>
-      <c r="C4">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="D4">
-        <v>96.62</v>
-      </c>
-      <c r="E4">
-        <v>602</v>
-      </c>
-      <c r="F4" s="1">
-        <v>38477</v>
-      </c>
-      <c r="G4" s="1">
-        <v>38477</v>
-      </c>
-      <c r="H4" s="1">
-        <v>38657</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>8</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>1</v>
-      </c>
-      <c r="R4" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>78189</v>
-      </c>
-      <c r="C5">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="D5">
-        <v>96.62</v>
-      </c>
-      <c r="E5">
-        <v>602</v>
-      </c>
-      <c r="F5" s="1">
-        <v>38848</v>
-      </c>
-      <c r="G5" s="1">
-        <v>38848</v>
-      </c>
-      <c r="H5" s="1">
-        <v>39022</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>8</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>1</v>
-      </c>
-      <c r="R5" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>69936</v>
-      </c>
-      <c r="C6">
-        <v>37.65</v>
-      </c>
-      <c r="D6">
-        <v>97.05</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6" s="1">
-        <v>38454</v>
-      </c>
-      <c r="G6" s="1">
-        <v>38461</v>
-      </c>
-      <c r="H6" s="1">
-        <v>38657</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>8</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>1</v>
-      </c>
-      <c r="R6" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>68322</v>
-      </c>
-      <c r="C7">
-        <v>37.65</v>
-      </c>
-      <c r="D7">
-        <v>97.05</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7" s="1">
-        <v>38824</v>
-      </c>
-      <c r="G7" s="1">
-        <v>38831</v>
-      </c>
-      <c r="H7" s="1">
-        <v>39022</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>8</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>49852</v>
-      </c>
-      <c r="C8">
-        <v>37.933</v>
-      </c>
-      <c r="D8">
-        <v>98.016999999999996</v>
-      </c>
-      <c r="E8">
-        <v>468</v>
-      </c>
-      <c r="F8" s="1">
-        <v>38821</v>
-      </c>
-      <c r="G8" s="1">
-        <v>38821</v>
-      </c>
-      <c r="H8" s="1">
-        <v>39022</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>8</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>1</v>
-      </c>
-      <c r="R8" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>63749</v>
-      </c>
-      <c r="C9">
-        <v>39.216999999999999</v>
-      </c>
-      <c r="D9">
-        <v>96.582999999999998</v>
-      </c>
-      <c r="E9">
-        <v>299</v>
-      </c>
-      <c r="F9" s="1">
-        <v>38819</v>
-      </c>
-      <c r="G9" s="1">
-        <v>38826</v>
-      </c>
-      <c r="H9" s="1">
-        <v>39022</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>8</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>66977</v>
-      </c>
-      <c r="C10">
-        <v>37.582999999999998</v>
-      </c>
-      <c r="D10">
-        <v>101.4</v>
-      </c>
-      <c r="E10">
-        <v>920</v>
-      </c>
-      <c r="F10" s="1">
-        <v>38453</v>
-      </c>
-      <c r="G10" s="1">
-        <v>38460</v>
-      </c>
-      <c r="H10" s="1">
-        <v>38657</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>8</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>1</v>
-      </c>
-      <c r="R10" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>74239</v>
-      </c>
-      <c r="C11">
-        <v>37.582999999999998</v>
-      </c>
-      <c r="D11">
-        <v>101.4</v>
-      </c>
-      <c r="E11">
-        <v>920</v>
-      </c>
-      <c r="F11" s="1">
-        <v>38826</v>
-      </c>
-      <c r="G11" s="1">
-        <v>38833</v>
-      </c>
-      <c r="H11" s="1">
-        <v>39022</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>8</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="11">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
-    <sortCondition ref="A2:A11"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AJ213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="576" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
@@ -3021,123 +2329,123 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="G1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="R1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>215</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>217</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>218</v>
       </c>
-      <c r="S1" t="s">
-        <v>219</v>
-      </c>
-      <c r="T1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U1" t="s">
-        <v>221</v>
-      </c>
-      <c r="V1" t="s">
-        <v>222</v>
-      </c>
-      <c r="W1" t="s">
-        <v>223</v>
-      </c>
       <c r="X1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D2">
         <v>2.5000000000000001E-3</v>
@@ -3241,13 +2549,13 @@
     </row>
     <row r="3" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D3">
         <v>2.5000000000000001E-3</v>
@@ -3351,13 +2659,13 @@
     </row>
     <row r="4" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D4">
         <v>2.5000000000000001E-3</v>
@@ -3461,13 +2769,13 @@
     </row>
     <row r="5" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D5">
         <v>1.25E-3</v>
@@ -3571,13 +2879,13 @@
     </row>
     <row r="6" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D6">
         <v>1.25E-3</v>
@@ -3681,13 +2989,13 @@
     </row>
     <row r="7" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D7">
         <v>7.5000000000000002E-4</v>
@@ -3791,13 +3099,13 @@
     </row>
     <row r="8" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8">
         <v>7.5000000000000002E-4</v>
@@ -3901,13 +3209,13 @@
     </row>
     <row r="9" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D9">
         <v>2.5000000000000001E-3</v>
@@ -4011,13 +3319,13 @@
     </row>
     <row r="10" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10">
         <v>2.5000000000000001E-3</v>
@@ -4121,13 +3429,13 @@
     </row>
     <row r="11" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D11">
         <v>2.5000000000000001E-3</v>
@@ -4231,13 +3539,13 @@
     </row>
     <row r="12" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D12">
         <v>1.25E-3</v>
@@ -4341,13 +3649,13 @@
     </row>
     <row r="13" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D13">
         <v>1.25E-3</v>
@@ -4451,13 +3759,13 @@
     </row>
     <row r="14" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D14">
         <v>7.5000000000000002E-4</v>
@@ -4561,13 +3869,13 @@
     </row>
     <row r="15" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D15">
         <v>7.5000000000000002E-4</v>
@@ -4671,13 +3979,13 @@
     </row>
     <row r="16" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D16">
         <v>3.5000000000000005E-3</v>
@@ -4781,13 +4089,13 @@
     </row>
     <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D17">
         <v>3.5000000000000005E-3</v>
@@ -4891,13 +4199,13 @@
     </row>
     <row r="18" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D18">
         <v>1.5E-3</v>
@@ -5001,13 +4309,13 @@
     </row>
     <row r="19" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D19">
         <v>1.5E-3</v>
@@ -5111,13 +4419,13 @@
     </row>
     <row r="20" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D20">
         <v>1E-3</v>
@@ -5221,13 +4529,13 @@
     </row>
     <row r="21" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D21">
         <v>7.5000000000000002E-4</v>
@@ -5331,13 +4639,13 @@
     </row>
     <row r="22" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D22">
         <v>7.5000000000000002E-4</v>
@@ -5441,13 +4749,13 @@
     </row>
     <row r="23" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>3.5000000000000005E-3</v>
@@ -5551,13 +4859,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D24">
         <v>3.5000000000000005E-3</v>
@@ -5661,13 +4969,13 @@
     </row>
     <row r="25" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D25">
         <v>1.5E-3</v>
@@ -5771,13 +5079,13 @@
     </row>
     <row r="26" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D26">
         <v>1.5E-3</v>
@@ -5881,13 +5189,13 @@
     </row>
     <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D27">
         <v>1E-3</v>
@@ -5991,13 +5299,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D28">
         <v>7.5000000000000002E-4</v>
@@ -6101,13 +5409,13 @@
     </row>
     <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D29">
         <v>7.5000000000000002E-4</v>
@@ -6211,13 +5519,13 @@
     </row>
     <row r="30" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D30">
         <v>2.5000000000000001E-3</v>
@@ -6321,13 +5629,13 @@
     </row>
     <row r="31" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D31">
         <v>2.5000000000000001E-3</v>
@@ -6431,13 +5739,13 @@
     </row>
     <row r="32" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D32">
         <v>2.5000000000000001E-3</v>
@@ -6541,13 +5849,13 @@
     </row>
     <row r="33" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D33">
         <v>1.25E-3</v>
@@ -6651,13 +5959,13 @@
     </row>
     <row r="34" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D34">
         <v>1.25E-3</v>
@@ -6761,13 +6069,13 @@
     </row>
     <row r="35" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D35">
         <v>7.5000000000000002E-4</v>
@@ -6871,13 +6179,13 @@
     </row>
     <row r="36" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D36">
         <v>7.5000000000000002E-4</v>
@@ -6981,13 +6289,13 @@
     </row>
     <row r="37" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D37">
         <v>1.8E-3</v>
@@ -7091,13 +6399,13 @@
     </row>
     <row r="38" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D38">
         <v>1.1999999999999999E-3</v>
@@ -7201,13 +6509,13 @@
     </row>
     <row r="39" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D39">
         <v>1E-3</v>
@@ -7311,13 +6619,13 @@
     </row>
     <row r="40" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D40">
         <v>5.2499999999999997E-4</v>
@@ -7421,13 +6729,13 @@
     </row>
     <row r="41" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D41">
         <v>5.2499999999999997E-4</v>
@@ -7531,13 +6839,13 @@
     </row>
     <row r="42" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D42">
         <v>4.75E-4</v>
@@ -7641,13 +6949,13 @@
     </row>
     <row r="43" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D43">
         <v>4.75E-4</v>
@@ -7751,13 +7059,13 @@
     </row>
     <row r="44" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B44">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D44" s="9">
         <v>0.02</v>
@@ -7861,13 +7169,13 @@
     </row>
     <row r="45" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B45">
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D45" s="9">
         <v>1.6E-2</v>
@@ -7971,13 +7279,13 @@
     </row>
     <row r="46" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D46" s="9">
         <v>1.2999999999999999E-2</v>
@@ -8081,13 +7389,13 @@
     </row>
     <row r="47" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B47">
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D47" s="9">
         <v>6.0000000000000001E-3</v>
@@ -8191,13 +7499,13 @@
     </row>
     <row r="48" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B48">
         <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D48" s="9">
         <v>6.0000000000000001E-3</v>
@@ -8301,13 +7609,13 @@
     </row>
     <row r="49" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B49">
         <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D49" s="9">
         <v>6.0000000000000001E-3</v>
@@ -8411,13 +7719,13 @@
     </row>
     <row r="50" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B50">
         <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D50" s="9">
         <v>5.0000000000000001E-3</v>
@@ -8521,13 +7829,13 @@
     </row>
     <row r="51" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B51">
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D51" s="9">
         <v>5.0000000000000001E-3</v>
@@ -8631,13 +7939,13 @@
     </row>
     <row r="52" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B52">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D52">
         <v>3.4482759000000002E-2</v>
@@ -8741,13 +8049,13 @@
     </row>
     <row r="53" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B53">
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D53">
         <v>2.7586207000000001E-2</v>
@@ -8851,13 +8159,13 @@
     </row>
     <row r="54" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B54">
         <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D54">
         <v>2.7586207000000001E-2</v>
@@ -8961,13 +8269,13 @@
     </row>
     <row r="55" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B55">
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D55">
         <v>2.7586210000000002E-3</v>
@@ -9071,13 +8379,13 @@
     </row>
     <row r="56" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B56">
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D56">
         <v>2.7586210000000002E-3</v>
@@ -9181,13 +8489,13 @@
     </row>
     <row r="57" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B57">
         <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D57">
         <v>1.3793099999999999E-3</v>
@@ -9291,13 +8599,13 @@
     </row>
     <row r="58" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B58">
         <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D58">
         <v>1.3793099999999999E-3</v>
@@ -9401,13 +8709,13 @@
     </row>
     <row r="59" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B59">
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D59">
         <v>1.3793099999999999E-3</v>
@@ -14094,7 +13402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E2"/>
@@ -14111,24 +13419,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -14148,7 +13456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558FADBF-76C4-4D91-8CE7-6DF079B1F138}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:D2"/>
@@ -14164,21 +13472,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14195,7 +13503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K11"/>
@@ -14215,7 +13523,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>3</v>
@@ -14224,33 +13532,33 @@
         <v>4</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>38447</v>
@@ -14285,7 +13593,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>38810</v>
@@ -14320,7 +13628,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>38423</v>
@@ -14355,7 +13663,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>38819</v>
@@ -14390,7 +13698,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>38780</v>
@@ -14425,7 +13733,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>38807</v>
@@ -14460,7 +13768,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>38454</v>
@@ -14495,7 +13803,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>38454</v>
@@ -14530,7 +13838,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>38819</v>
@@ -14565,7 +13873,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>38819</v>
@@ -14604,13 +13912,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14628,99 +13936,99 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="K1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -14809,7 +14117,7 @@
     </row>
     <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -14898,7 +14206,7 @@
     </row>
     <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -14987,7 +14295,7 @@
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -15076,7 +14384,7 @@
     </row>
     <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -15121,7 +14429,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -15168,7 +14476,7 @@
     </row>
     <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -15290,7 +14598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E7"/>
@@ -15307,121 +14615,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -15429,7 +14737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9600C260-045B-494F-96B8-C4B2D07CC3E3}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L2"/>
@@ -15457,45 +14765,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B2" s="33">
         <v>0.6</v>
@@ -15536,12 +14844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF59C2-B851-4956-A7BA-5B8FBABCF390}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -15549,54 +14857,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>265</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>266</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>267</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>269</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>270</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>271</v>
-      </c>
-      <c r="J1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" t="s">
-        <v>276</v>
-      </c>
-      <c r="O1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -15662,36 +14970,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -15742,81 +15050,81 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="H1" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" t="s">
-        <v>95</v>
-      </c>
       <c r="W1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>39.130000000000003</v>
@@ -15884,10 +15192,10 @@
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>37.630000000000003</v>
@@ -15956,10 +15264,10 @@
     </row>
     <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>37.96</v>
@@ -16027,10 +15335,10 @@
     </row>
     <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>39.21</v>
@@ -16098,10 +15406,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>37.35</v>
@@ -16196,7 +15504,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16210,7 +15518,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -16219,30 +15527,30 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>38461</v>
@@ -16262,7 +15570,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>38500</v>
@@ -16282,7 +15590,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>38812</v>
@@ -16302,7 +15610,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>38870</v>
@@ -16322,7 +15630,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>38898</v>
@@ -16340,12 +15648,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>38424</v>
@@ -16365,7 +15673,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>38491</v>
@@ -16385,7 +15693,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>38833</v>
@@ -16405,7 +15713,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>38879</v>
@@ -16425,7 +15733,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>38782</v>
@@ -16445,7 +15753,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <v>38870</v>
@@ -16465,7 +15773,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>38827</v>
@@ -16486,7 +15794,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>38457</v>
@@ -16506,7 +15814,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>38457</v>
@@ -16526,7 +15834,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>38487</v>
@@ -16544,12 +15852,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4">
         <v>38822</v>
@@ -16569,7 +15877,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>38852</v>
@@ -16611,31 +15919,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>2</v>
@@ -16643,7 +15951,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1.6</v>
@@ -16670,12 +15978,12 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -16704,7 +16012,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1.6</v>
@@ -16733,7 +16041,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1.6</v>
@@ -16762,7 +16070,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>1.6</v>
@@ -16791,7 +16099,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1.6</v>
@@ -16820,7 +16128,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B8">
         <v>1.6</v>
@@ -16849,7 +16157,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B9">
         <v>1.6</v>
@@ -16882,1085 +16190,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B151"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B97">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B100">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B104">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B105">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B106">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B108">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B113">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B114">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B115">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B116">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B117">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B118">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B119">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B120">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B121">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C87"/>
@@ -17977,7 +16206,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -17988,7 +16217,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>38527</v>
@@ -17999,7 +16228,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>38529</v>
@@ -18010,7 +16239,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>38531</v>
@@ -18021,7 +16250,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>38534</v>
@@ -18032,7 +16261,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>38543</v>
@@ -18043,7 +16272,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>38548</v>
@@ -18054,7 +16283,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <v>38550</v>
@@ -18065,7 +16294,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <v>38554</v>
@@ -18076,7 +16305,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>38556</v>
@@ -18087,7 +16316,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>38558</v>
@@ -18098,7 +16327,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>38562</v>
@@ -18109,7 +16338,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>38565</v>
@@ -18120,7 +16349,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>38572</v>
@@ -18131,7 +16360,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>38847</v>
@@ -18142,7 +16371,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>38867</v>
@@ -18153,7 +16382,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4">
         <v>38872</v>
@@ -18164,7 +16393,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4">
         <v>38877</v>
@@ -18175,7 +16404,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4">
         <v>38885</v>
@@ -18186,7 +16415,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>38896</v>
@@ -18197,7 +16426,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4">
         <v>38899</v>
@@ -18208,7 +16437,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
         <v>38903</v>
@@ -18219,7 +16448,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4">
         <v>38908</v>
@@ -18230,7 +16459,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4">
         <v>38911</v>
@@ -18241,7 +16470,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4">
         <v>38913</v>
@@ -18252,7 +16481,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" s="4">
         <v>38915</v>
@@ -18263,7 +16492,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4">
         <v>38918</v>
@@ -18274,7 +16503,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4">
         <v>38921</v>
@@ -18285,7 +16514,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4">
         <v>38923</v>
@@ -18296,7 +16525,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4">
         <v>38926</v>
@@ -18307,7 +16536,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4">
         <v>38930</v>
@@ -18318,7 +16547,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4">
         <v>38937</v>
@@ -18329,7 +16558,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="6">
         <v>38521</v>
@@ -18340,7 +16569,7 @@
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B34" s="6">
         <v>38528</v>
@@ -18351,7 +16580,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35" s="6">
         <v>38529</v>
@@ -18362,7 +16591,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36" s="6">
         <v>38536</v>
@@ -18373,7 +16602,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" s="6">
         <v>38536</v>
@@ -18384,7 +16613,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" s="6">
         <v>38543</v>
@@ -18395,7 +16624,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B39" s="6">
         <v>38544</v>
@@ -18406,7 +16635,7 @@
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B40" s="6">
         <v>38551</v>
@@ -18417,7 +16646,7 @@
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B41" s="6">
         <v>38552</v>
@@ -18428,7 +16657,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42" s="6">
         <v>38560</v>
@@ -18439,7 +16668,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B43" s="6">
         <v>38561</v>
@@ -18450,7 +16679,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6">
         <v>38567</v>
@@ -18461,7 +16690,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B45" s="6">
         <v>38572</v>
@@ -18472,7 +16701,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46" s="6">
         <v>38577</v>
@@ -18483,7 +16712,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B47" s="6">
         <v>38578</v>
@@ -18494,7 +16723,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B48" s="6">
         <v>38584</v>
@@ -18505,7 +16734,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" s="6">
         <v>38585</v>
@@ -18516,7 +16745,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B50" s="6">
         <v>38865</v>
@@ -18527,7 +16756,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B51" s="6">
         <v>38868</v>
@@ -18538,7 +16767,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B52" s="6">
         <v>38880</v>
@@ -18549,7 +16778,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B53" s="6">
         <v>38884</v>
@@ -18560,7 +16789,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B54" s="6">
         <v>38888</v>
@@ -18571,7 +16800,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B55" s="6">
         <v>38891</v>
@@ -18582,7 +16811,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B56" s="6">
         <v>38894</v>
@@ -18593,7 +16822,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B57" s="6">
         <v>38898</v>
@@ -18604,7 +16833,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B58" s="6">
         <v>38901</v>
@@ -18615,7 +16844,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B59" s="6">
         <v>38903</v>
@@ -18626,7 +16855,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B60" s="6">
         <v>38906</v>
@@ -18637,7 +16866,7 @@
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B61" s="6">
         <v>38909</v>
@@ -18648,7 +16877,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B62" s="6">
         <v>38912</v>
@@ -18659,7 +16888,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B63" s="6">
         <v>38914</v>
@@ -18670,7 +16899,7 @@
     </row>
     <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B64" s="6">
         <v>38917</v>
@@ -18681,7 +16910,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B65" s="6">
         <v>38919</v>
@@ -18692,7 +16921,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B66" s="6">
         <v>38922</v>
@@ -18703,7 +16932,7 @@
     </row>
     <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B67" s="6">
         <v>38933</v>
@@ -18714,7 +16943,7 @@
     </row>
     <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B68" s="6">
         <v>38936</v>
@@ -18725,21 +16954,21 @@
     </row>
     <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B71" s="6">
         <v>38484</v>
@@ -18750,7 +16979,7 @@
     </row>
     <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B72" s="6">
         <v>38492</v>
@@ -18761,7 +16990,7 @@
     </row>
     <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B73" s="6">
         <v>38484</v>
@@ -18772,7 +17001,7 @@
     </row>
     <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B74" s="6">
         <v>38492</v>
@@ -18783,7 +17012,7 @@
     </row>
     <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B75" s="6">
         <v>38530</v>
@@ -18794,7 +17023,7 @@
     </row>
     <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B76" s="6">
         <v>38547</v>
@@ -18805,7 +17034,7 @@
     </row>
     <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B77" s="6">
         <v>38561</v>
@@ -18816,7 +17045,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B78" s="6">
         <v>38573</v>
@@ -18827,7 +17056,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B79" s="6">
         <v>38852</v>
@@ -18838,7 +17067,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B80" s="6">
         <v>38852</v>
@@ -18849,7 +17078,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B81" s="6">
         <v>38877</v>
@@ -18860,7 +17089,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B82" s="6">
         <v>38890</v>
@@ -18871,7 +17100,7 @@
     </row>
     <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B83" s="6">
         <v>38898</v>
@@ -18882,7 +17111,7 @@
     </row>
     <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B84" s="6">
         <v>38917</v>
@@ -18893,7 +17122,7 @@
     </row>
     <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B85" s="6">
         <v>38925</v>
@@ -18904,7 +17133,7 @@
     </row>
     <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B86" s="6">
         <v>38931</v>
@@ -18915,7 +17144,7 @@
     </row>
     <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B87" s="6">
         <v>38939</v>
@@ -18930,7 +17159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5D1D0-E783-4E15-BB8E-68B8E93C0057}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F1"/>
@@ -18943,22 +17172,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -18966,7 +17195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC46E5-4664-4FE7-A277-7DF4620FA352}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B1"/>
@@ -18979,13 +17208,664 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.109375" style="11"/>
+    <col min="16" max="16" width="14.109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>69167</v>
+      </c>
+      <c r="C2">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="D2">
+        <v>96.62</v>
+      </c>
+      <c r="E2">
+        <v>602</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38477</v>
+      </c>
+      <c r="G2" s="1">
+        <v>38477</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38657</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>8</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>78736</v>
+      </c>
+      <c r="C3">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="D3">
+        <v>96.62</v>
+      </c>
+      <c r="E3">
+        <v>602</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38848</v>
+      </c>
+      <c r="G3" s="1">
+        <v>38848</v>
+      </c>
+      <c r="H3" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>8</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>66900</v>
+      </c>
+      <c r="C4">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="D4">
+        <v>96.62</v>
+      </c>
+      <c r="E4">
+        <v>602</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38477</v>
+      </c>
+      <c r="G4" s="1">
+        <v>38477</v>
+      </c>
+      <c r="H4" s="1">
+        <v>38657</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>8</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>78189</v>
+      </c>
+      <c r="C5">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="D5">
+        <v>96.62</v>
+      </c>
+      <c r="E5">
+        <v>602</v>
+      </c>
+      <c r="F5" s="1">
+        <v>38848</v>
+      </c>
+      <c r="G5" s="1">
+        <v>38848</v>
+      </c>
+      <c r="H5" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>8</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1</v>
+      </c>
+      <c r="R5" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>69936</v>
+      </c>
+      <c r="C6">
+        <v>37.65</v>
+      </c>
+      <c r="D6">
+        <v>97.05</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
+        <v>38454</v>
+      </c>
+      <c r="G6" s="1">
+        <v>38461</v>
+      </c>
+      <c r="H6" s="1">
+        <v>38657</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>8</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>68322</v>
+      </c>
+      <c r="C7">
+        <v>37.65</v>
+      </c>
+      <c r="D7">
+        <v>97.05</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38824</v>
+      </c>
+      <c r="G7" s="1">
+        <v>38831</v>
+      </c>
+      <c r="H7" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>8</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>49852</v>
+      </c>
+      <c r="C8">
+        <v>37.933</v>
+      </c>
+      <c r="D8">
+        <v>98.016999999999996</v>
+      </c>
+      <c r="E8">
+        <v>468</v>
+      </c>
+      <c r="F8" s="1">
+        <v>38821</v>
+      </c>
+      <c r="G8" s="1">
+        <v>38821</v>
+      </c>
+      <c r="H8" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>8</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>1</v>
+      </c>
+      <c r="R8" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>63749</v>
+      </c>
+      <c r="C9">
+        <v>39.216999999999999</v>
+      </c>
+      <c r="D9">
+        <v>96.582999999999998</v>
+      </c>
+      <c r="E9">
+        <v>299</v>
+      </c>
+      <c r="F9" s="1">
+        <v>38819</v>
+      </c>
+      <c r="G9" s="1">
+        <v>38826</v>
+      </c>
+      <c r="H9" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>8</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>66977</v>
+      </c>
+      <c r="C10">
+        <v>37.582999999999998</v>
+      </c>
+      <c r="D10">
+        <v>101.4</v>
+      </c>
+      <c r="E10">
+        <v>920</v>
+      </c>
+      <c r="F10" s="1">
+        <v>38453</v>
+      </c>
+      <c r="G10" s="1">
+        <v>38460</v>
+      </c>
+      <c r="H10" s="1">
+        <v>38657</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>8</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1</v>
+      </c>
+      <c r="R10" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>74239</v>
+      </c>
+      <c r="C11">
+        <v>37.582999999999998</v>
+      </c>
+      <c r="D11">
+        <v>101.4</v>
+      </c>
+      <c r="E11">
+        <v>920</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38826</v>
+      </c>
+      <c r="G11" s="1">
+        <v>38833</v>
+      </c>
+      <c r="H11" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Example input/Kansas/kansas inputs.xlsx
+++ b/Example input/Kansas/kansas inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9B1C44-B37E-4174-8CEF-FF547F2E9AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2283CF0A-204F-4581-A05F-2ACF2463BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="2484" windowWidth="15168" windowHeight="7536" tabRatio="824" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="852" windowWidth="17988" windowHeight="11652" tabRatio="824" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -1733,25 +1733,25 @@
       <selection activeCell="S1" sqref="S1:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.3515625" customWidth="1"/>
-    <col min="3" max="3" width="17.1171875" customWidth="1"/>
-    <col min="4" max="5" width="19.1171875" customWidth="1"/>
-    <col min="6" max="6" width="16.1171875" customWidth="1"/>
-    <col min="7" max="7" width="21.41015625" customWidth="1"/>
+    <col min="1" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="19.1171875" customWidth="1"/>
-    <col min="10" max="10" width="12.41015625" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="18.1171875" customWidth="1"/>
-    <col min="14" max="14" width="14.1171875" customWidth="1"/>
-    <col min="15" max="15" width="9.64453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.76171875" customWidth="1"/>
-    <col min="19" max="21" width="17.41015625" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="19" max="21" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2463,22 +2463,22 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.3515625" customWidth="1"/>
-    <col min="3" max="3" width="8.3515625" customWidth="1"/>
-    <col min="6" max="6" width="11.3515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.64453125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.87890625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.64453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1171875" style="10"/>
-    <col min="16" max="16" width="14.1171875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.109375" style="10"/>
+    <col min="16" max="16" width="14.109375" style="10" customWidth="1"/>
     <col min="17" max="17" width="14" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3109,23 +3109,23 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AR213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="600" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E1:E1048576"/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2:P213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.52734375" customWidth="1"/>
-    <col min="2" max="11" width="14.64453125" customWidth="1"/>
-    <col min="12" max="12" width="7.3515625" customWidth="1"/>
-    <col min="13" max="13" width="11.52734375" customWidth="1"/>
-    <col min="14" max="22" width="14.64453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="22" width="14.6640625" customWidth="1"/>
     <col min="23" max="31" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>173</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>173</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>173</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>173</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>173</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>173</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>173</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>174</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>174</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>174</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>174</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>174</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="E60">
         <v>-1</v>
@@ -11091,7 +11091,7 @@
       <c r="AJ60" s="13"/>
       <c r="AR60" s="13"/>
     </row>
-    <row r="61" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="E61">
         <v>-1</v>
@@ -11151,7 +11151,7 @@
       <c r="AJ61" s="13"/>
       <c r="AR61" s="13"/>
     </row>
-    <row r="62" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="E62">
         <v>-1</v>
@@ -11211,7 +11211,7 @@
       <c r="AJ62" s="13"/>
       <c r="AR62" s="13"/>
     </row>
-    <row r="63" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="E63">
         <v>-1</v>
@@ -11271,7 +11271,7 @@
       <c r="AJ63" s="13"/>
       <c r="AR63" s="13"/>
     </row>
-    <row r="64" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="E64">
         <v>-1</v>
@@ -11331,7 +11331,7 @@
       <c r="AJ64" s="13"/>
       <c r="AR64" s="13"/>
     </row>
-    <row r="65" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="E65">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
       <c r="AJ65" s="13"/>
       <c r="AR65" s="13"/>
     </row>
-    <row r="66" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="E66">
         <v>-1</v>
@@ -11451,7 +11451,7 @@
       <c r="AJ66" s="13"/>
       <c r="AR66" s="13"/>
     </row>
-    <row r="67" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="E67">
         <v>-1</v>
@@ -11511,7 +11511,7 @@
       <c r="AJ67" s="13"/>
       <c r="AR67" s="13"/>
     </row>
-    <row r="68" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="E68">
         <v>-1</v>
@@ -11571,7 +11571,7 @@
       <c r="AJ68" s="13"/>
       <c r="AR68" s="13"/>
     </row>
-    <row r="69" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="E69">
         <v>-1</v>
@@ -11631,7 +11631,7 @@
       <c r="AJ69" s="13"/>
       <c r="AR69" s="13"/>
     </row>
-    <row r="70" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="E70">
         <v>-1</v>
@@ -11691,7 +11691,7 @@
       <c r="AJ70" s="13"/>
       <c r="AR70" s="13"/>
     </row>
-    <row r="71" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="E71">
         <v>-1</v>
@@ -11751,7 +11751,7 @@
       <c r="AJ71" s="13"/>
       <c r="AR71" s="13"/>
     </row>
-    <row r="72" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="E72">
         <v>-1</v>
@@ -11811,7 +11811,7 @@
       <c r="AJ72" s="13"/>
       <c r="AR72" s="13"/>
     </row>
-    <row r="73" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="E73">
         <v>-1</v>
@@ -11871,7 +11871,7 @@
       <c r="AJ73" s="13"/>
       <c r="AR73" s="13"/>
     </row>
-    <row r="74" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="E74">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
       <c r="AJ74" s="13"/>
       <c r="AR74" s="13"/>
     </row>
-    <row r="75" spans="1:44" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="E75">
         <v>-1</v>
@@ -11991,7 +11991,7 @@
       <c r="AJ75" s="13"/>
       <c r="AR75" s="13"/>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>-1</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>-1</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>-1</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>-1</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>-1</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="81" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>-1</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="82" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>-1</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="83" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>-1</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="84" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>-1</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="85" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>-1</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="86" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E86">
         <v>-1</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="87" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>-1</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="88" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E88">
         <v>-1</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="89" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>-1</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="90" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>-1</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="91" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>-1</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="92" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>-1</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="93" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>-1</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="94" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E94">
         <v>-1</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="95" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>-1</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="96" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>-1</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="97" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>-1</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="98" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E98">
         <v>-1</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="99" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E99">
         <v>-1</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="100" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E100">
         <v>-1</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="101" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E101">
         <v>-1</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="102" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E102">
         <v>-1</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="103" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E103">
         <v>-1</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="104" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E104">
         <v>-1</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="105" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E105">
         <v>-1</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="106" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E106">
         <v>-1</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="107" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E107">
         <v>-1</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="108" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E108">
         <v>-1</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="109" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E109">
         <v>-1</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="110" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E110">
         <v>-1</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="111" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E111">
         <v>-1</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="112" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E112">
         <v>-1</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>-1</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>-1</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>-1</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E116">
         <v>-1</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="117" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E117">
         <v>-1</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="118" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E118">
         <v>-1</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E119">
         <v>-1</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="120" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E120">
         <v>-1</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="121" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E121">
         <v>-1</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="122" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E122">
         <v>-1</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E123">
         <v>-1</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="124" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E124">
         <v>-1</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="125" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E125">
         <v>-1</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="126" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E126">
         <v>-1</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="127" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E127">
         <v>-1</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="128" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E128">
         <v>-1</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="129" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E129">
         <v>-1</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="130" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E130">
         <v>-1</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="131" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E131">
         <v>-1</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="132" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E132">
         <v>-1</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="133" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E133">
         <v>-1</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="134" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E134">
         <v>-1</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="135" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E135">
         <v>-1</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="136" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E136">
         <v>-1</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="137" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E137">
         <v>-1</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="138" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E138">
         <v>-1</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="139" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E139">
         <v>-1</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="140" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E140">
         <v>-1</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="141" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E141">
         <v>-1</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="142" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E142">
         <v>-1</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="143" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E143">
         <v>-1</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="144" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E144">
         <v>-1</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="145" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E145">
         <v>-1</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="146" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E146">
         <v>-1</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="147" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E147">
         <v>-1</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="148" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E148">
         <v>-1</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="149" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E149">
         <v>-1</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="150" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E150">
         <v>-1</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="151" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E151">
         <v>-1</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="152" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E152">
         <v>-1</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="153" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E153">
         <v>-1</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="154" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E154">
         <v>-1</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="155" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E155">
         <v>-1</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="156" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E156">
         <v>-1</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="157" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E157">
         <v>-1</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="158" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E158">
         <v>-1</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="159" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E159">
         <v>-1</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="160" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E160">
         <v>-1</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="161" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E161">
         <v>-1</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="162" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E162">
         <v>-1</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="163" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E163">
         <v>-1</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="164" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E164">
         <v>-1</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="165" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E165">
         <v>-1</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="166" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="166" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E166">
         <v>-1</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="167" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E167">
         <v>-1</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="168" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E168">
         <v>-1</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="169" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E169">
         <v>-1</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="170" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="170" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E170">
         <v>-1</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="171" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="171" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E171">
         <v>-1</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="172" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E172">
         <v>-1</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="173" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E173">
         <v>-1</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="174" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E174">
         <v>-1</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="175" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E175">
         <v>-1</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="176" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E176">
         <v>-1</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="177" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E177">
         <v>-1</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="178" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E178">
         <v>-1</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="179" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E179">
         <v>-1</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="180" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E180">
         <v>-1</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="181" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E181">
         <v>-1</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="182" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E182">
         <v>-1</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="183" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E183">
         <v>-1</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="184" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E184">
         <v>-1</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="185" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E185">
         <v>-1</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="186" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E186">
         <v>-1</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="187" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E187">
         <v>-1</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="188" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E188">
         <v>-1</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="189" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E189">
         <v>-1</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="190" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E190">
         <v>-1</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="191" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E191">
         <v>-1</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="192" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E192">
         <v>-1</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="193" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E193">
         <v>-1</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="194" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E194">
         <v>-1</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="195" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E195">
         <v>-1</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="196" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E196">
         <v>-1</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="197" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E197">
         <v>-1</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="198" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E198">
         <v>-1</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="199" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E199">
         <v>-1</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="200" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E200">
         <v>-1</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="201" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E201">
         <v>-1</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="202" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E202">
         <v>-1</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="203" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E203">
         <v>-1</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="204" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E204">
         <v>-1</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="205" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E205">
         <v>-1</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="206" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E206">
         <v>-1</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="207" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E207">
         <v>-1</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="208" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E208">
         <v>-1</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="209" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E209">
         <v>-1</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="210" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E210">
         <v>-1</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="211" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E211">
         <v>-1</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="212" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E212">
         <v>-1</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="5:31" x14ac:dyDescent="0.5">
+    <row r="213" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E213">
         <v>-1</v>
       </c>
@@ -19321,13 +19321,13 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.64453125" customWidth="1"/>
-    <col min="5" max="5" width="16.52734375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -19371,16 +19371,17 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.52734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -19394,7 +19395,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>255</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>279</v>
       </c>
@@ -19436,17 +19437,17 @@
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.52734375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.52734375" customWidth="1"/>
-    <col min="10" max="10" width="15.3515625" customWidth="1"/>
-    <col min="11" max="11" width="15.87890625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -19484,7 +19485,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -19522,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -19598,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -19636,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -19674,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -19750,7 +19751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -19788,7 +19789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -19826,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -19879,20 +19880,20 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.41015625" customWidth="1"/>
-    <col min="2" max="2" width="14.41015625" customWidth="1"/>
-    <col min="3" max="3" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.64453125" customWidth="1"/>
-    <col min="6" max="8" width="16.52734375" customWidth="1"/>
-    <col min="12" max="13" width="8.1171875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="8" width="16.5546875" customWidth="1"/>
+    <col min="12" max="13" width="8.109375" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.52734375" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -19984,7 +19985,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -20073,7 +20074,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -20251,7 +20252,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -20521,32 +20522,32 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>19</v>
       </c>
@@ -20565,13 +20566,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.234375" customWidth="1"/>
-    <col min="3" max="3" width="28.52734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -20588,7 +20589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -20605,7 +20606,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
@@ -20622,7 +20623,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>73</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>74</v>
       </c>
@@ -20656,7 +20657,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
@@ -20673,7 +20674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>75</v>
       </c>
@@ -20704,24 +20705,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.87890625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.87890625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1171875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.52734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1171875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1171875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.41015625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.52734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.52734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.87890625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.87890625" style="24"/>
+    <col min="1" max="1" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -20759,7 +20760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>232</v>
       </c>
@@ -20811,12 +20812,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.87890625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -20863,7 +20864,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -20924,12 +20925,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1171875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -20958,7 +20959,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>179</v>
       </c>
@@ -21001,15 +21002,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3515625" customWidth="1"/>
-    <col min="2" max="2" width="13.41015625" customWidth="1"/>
-    <col min="8" max="8" width="13.1171875" customWidth="1"/>
-    <col min="19" max="19" width="11.52734375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -21080,7 +21081,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
@@ -21151,7 +21152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -21223,7 +21224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -21294,7 +21295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>73</v>
       </c>
@@ -21365,7 +21366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
@@ -21436,19 +21437,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:23" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
     </row>
-    <row r="17" spans="1:1" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
     </row>
   </sheetData>
@@ -21468,16 +21469,16 @@
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.52734375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.87890625" customWidth="1"/>
-    <col min="11" max="11" width="13.52734375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -21515,7 +21516,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -21541,7 +21542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -21567,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -21593,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -21619,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -21648,7 +21649,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -21674,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -21700,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -21726,7 +21727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -21752,7 +21753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -21778,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -21804,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -21831,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -21857,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -21883,7 +21884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -21912,7 +21913,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -21938,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -21980,12 +21981,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.87890625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -21999,7 +22000,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -22027,14 +22028,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.41015625" customWidth="1"/>
-    <col min="6" max="6" width="15.41015625" customWidth="1"/>
-    <col min="10" max="10" width="15.64453125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -22072,7 +22073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -22110,7 +22111,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -22180,7 +22181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -22215,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -22250,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -22285,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -22320,7 +22321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
@@ -22369,13 +22370,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.3515625" customWidth="1"/>
-    <col min="3" max="3" width="11.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -22386,7 +22387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -22397,7 +22398,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -22408,7 +22409,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -22419,7 +22420,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -22430,7 +22431,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -22441,7 +22442,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -22452,7 +22453,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -22463,7 +22464,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -22474,7 +22475,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -22485,7 +22486,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -22507,7 +22508,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -22518,7 +22519,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -22529,7 +22530,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -22540,7 +22541,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -22551,7 +22552,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -22562,7 +22563,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -22573,7 +22574,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -22584,7 +22585,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -22606,7 +22607,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -22628,7 +22629,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -22639,7 +22640,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -22650,7 +22651,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -22672,7 +22673,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -22683,7 +22684,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -22694,7 +22695,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -22705,7 +22706,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -22716,7 +22717,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -22727,7 +22728,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -22738,7 +22739,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -22749,7 +22750,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -22771,7 +22772,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -22782,7 +22783,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -22793,7 +22794,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
@@ -22804,7 +22805,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -22815,7 +22816,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -22826,7 +22827,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -22837,7 +22838,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -22848,7 +22849,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -22859,7 +22860,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -22881,7 +22882,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -22892,7 +22893,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -22903,7 +22904,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -22914,7 +22915,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
@@ -22925,7 +22926,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -22936,7 +22937,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -22947,7 +22948,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -22958,7 +22959,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -22969,7 +22970,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -22980,7 +22981,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -22991,7 +22992,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -23013,7 +23014,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -23024,7 +23025,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -23035,7 +23036,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -23046,7 +23047,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -23057,7 +23058,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -23068,7 +23069,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -23079,7 +23080,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -23090,7 +23091,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -23101,7 +23102,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -23112,7 +23113,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -23123,21 +23124,21 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>19</v>
       </c>
@@ -23148,7 +23149,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -23159,7 +23160,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>20</v>
       </c>
@@ -23170,7 +23171,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>20</v>
       </c>
@@ -23181,7 +23182,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
@@ -23192,7 +23193,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>20</v>
       </c>
@@ -23203,7 +23204,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -23214,7 +23215,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>20</v>
       </c>
@@ -23225,7 +23226,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
@@ -23236,7 +23237,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
@@ -23247,7 +23248,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>22</v>
       </c>
@@ -23258,7 +23259,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>22</v>
       </c>
@@ -23269,7 +23270,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -23280,7 +23281,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>22</v>
       </c>
@@ -23291,7 +23292,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>22</v>
       </c>
@@ -23302,7 +23303,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>22</v>
       </c>
@@ -23313,7 +23314,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>22</v>
       </c>
@@ -23339,9 +23340,9 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -23375,9 +23376,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -23388,210 +23389,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c68283fca48dae9b1add248de89d15c2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" xmlns:ns3="73fb875a-8af9-4255-b008-0995492d31cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40d2b883f32ec076906f2da59f0ebb5f" ns2:_="" ns3:_="">
-    <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
-    <xsd:import namespace="73fb875a-8af9-4255-b008-0995492d31cd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8ff62593-b918-4deb-ac08-0d74ac0cc7e6" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="73fb875a-8af9-4255-b008-0995492d31cd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{77211ec7-9289-48e1-8a25-db087204c2aa}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="442dd8d0-93bc-4a15-a2cd-49423a906912">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4062F44-2271-442E-A9E4-C9D848982103}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DDECB4A-9ABF-4708-96AE-8CBC59050E2E}"/>
 </file>
--- a/Example input/Kansas/kansas inputs.xlsx
+++ b/Example input/Kansas/kansas inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2283CF0A-204F-4581-A05F-2ACF2463BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683E75D6-A396-43E4-B7AB-BD49EDC32808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="852" windowWidth="17988" windowHeight="11652" tabRatio="824" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23508" yWindow="1476" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -14,18 +14,19 @@
     <sheet name="Fertilization" sheetId="1" r:id="rId4"/>
     <sheet name="Tillage" sheetId="21" r:id="rId5"/>
     <sheet name="GridRatio" sheetId="11" r:id="rId6"/>
-    <sheet name="Irrig" sheetId="3" r:id="rId7"/>
-    <sheet name="Drip" sheetId="16" r:id="rId8"/>
-    <sheet name="DripNodes" sheetId="17" r:id="rId9"/>
-    <sheet name="Init" sheetId="2" r:id="rId10"/>
-    <sheet name="Soil" sheetId="6" r:id="rId11"/>
-    <sheet name="Solute" sheetId="15" r:id="rId12"/>
-    <sheet name="Gas" sheetId="19" r:id="rId13"/>
-    <sheet name="Time" sheetId="4" r:id="rId14"/>
-    <sheet name="Variety" sheetId="10" r:id="rId15"/>
-    <sheet name="Weather" sheetId="7" r:id="rId16"/>
-    <sheet name="MulchDecomp" sheetId="18" r:id="rId17"/>
-    <sheet name="MulchGeo" sheetId="20" r:id="rId18"/>
+    <sheet name="Irrig_data" sheetId="3" r:id="rId7"/>
+    <sheet name="Irrig" sheetId="22" r:id="rId8"/>
+    <sheet name="Drip" sheetId="16" r:id="rId9"/>
+    <sheet name="DripNodes" sheetId="17" r:id="rId10"/>
+    <sheet name="Init" sheetId="2" r:id="rId11"/>
+    <sheet name="Soil" sheetId="6" r:id="rId12"/>
+    <sheet name="Solute" sheetId="15" r:id="rId13"/>
+    <sheet name="Gas" sheetId="19" r:id="rId14"/>
+    <sheet name="Time" sheetId="4" r:id="rId15"/>
+    <sheet name="Variety" sheetId="10" r:id="rId16"/>
+    <sheet name="Weather" sheetId="7" r:id="rId17"/>
+    <sheet name="MulchDecomp" sheetId="18" r:id="rId18"/>
+    <sheet name="MulchGeo" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -1155,6 +1156,9 @@
   </si>
   <si>
     <t>seedDepth</t>
+  </si>
+  <si>
+    <t>amount (mm/day)</t>
   </si>
 </sst>
 </file>
@@ -1406,9 +1410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1446,9 +1450,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,26 +1485,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1533,26 +1520,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2455,12 +2425,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC46E5-4664-4FE7-A277-7DF4620FA352}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2533,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>69167</v>
+        <v>68000</v>
       </c>
       <c r="C2">
         <v>39.130000000000003</v>
@@ -2651,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>66900</v>
+        <v>68000</v>
       </c>
       <c r="C4">
         <v>39.130000000000003</v>
@@ -3104,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AR213"/>
@@ -19312,7 +19306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E2"/>
@@ -19366,12 +19360,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558FADBF-76C4-4D91-8CE7-6DF079B1F138}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -19428,7 +19422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L11"/>
@@ -19871,7 +19865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD17"/>
@@ -20557,7 +20551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E7"/>
@@ -20696,7 +20690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9600C260-045B-494F-96B8-C4B2D07CC3E3}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L2"/>
@@ -20803,7 +20797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF59C2-B851-4956-A7BA-5B8FBABCF390}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:O2"/>
@@ -21465,8 +21459,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22367,7 +22361,7 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22384,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -23332,6 +23326,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2162BF-70BD-4136-A395-41A98066B4E6}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5D1D0-E783-4E15-BB8E-68B8E93C0057}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F1"/>
@@ -23365,28 +23386,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC46E5-4664-4FE7-A277-7DF4620FA352}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Example input/Kansas/kansas inputs.xlsx
+++ b/Example input/Kansas/kansas inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C76A52C-8A48-40AC-8A08-E3A7BA780370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802FB1C2-D95F-4682-BB7A-8F8F937BB32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="6465" windowWidth="25920" windowHeight="11730" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="645" windowWidth="21600" windowHeight="11295" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="MulchDecomp" sheetId="18" r:id="rId18"/>
     <sheet name="WaterMovParam" sheetId="23" r:id="rId19"/>
     <sheet name="MulchGeo" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -253,6 +254,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E9675BCD-BC75-4CD7-8BC3-4B7C59A0ED42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ug/cm3 for all C and N fractions</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
@@ -383,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="333">
   <si>
     <t>Date</t>
   </si>
@@ -1379,6 +1404,9 @@
   </si>
   <si>
     <t>WaterMovParam</t>
+  </si>
+  <si>
+    <t>MOSI06IR</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1419,7 @@
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1502,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1612,7 +1653,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3E97CEA8-BAD4-46EE-8B57-316ABEAFB5E3}"/>
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1917,10 +1959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,6 +2885,74 @@
         <v>330</v>
       </c>
     </row>
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>232</v>
+      </c>
+      <c r="S14" t="s">
+        <v>283</v>
+      </c>
+      <c r="T14" t="s">
+        <v>255</v>
+      </c>
+      <c r="U14" t="s">
+        <v>279</v>
+      </c>
+      <c r="V14" t="s">
+        <v>308</v>
+      </c>
+      <c r="W14" t="s">
+        <v>271</v>
+      </c>
+      <c r="X14" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2876,10 +2986,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,6 +3735,62 @@
         <v>75</v>
       </c>
     </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14">
+        <v>74239</v>
+      </c>
+      <c r="C14">
+        <v>37.582999999999998</v>
+      </c>
+      <c r="D14">
+        <v>101.4</v>
+      </c>
+      <c r="E14">
+        <v>920</v>
+      </c>
+      <c r="F14" s="1">
+        <v>38826</v>
+      </c>
+      <c r="G14" s="1">
+        <v>38833</v>
+      </c>
+      <c r="H14" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>8</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
     <sortCondition ref="A2:A11"/>
@@ -3643,7 +3809,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="600" activePane="bottomLeft"/>
       <selection activeCell="Q2" sqref="Q2"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q213"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20615,10 +20781,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+      <selection activeCell="A14" sqref="A14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21122,6 +21288,44 @@
         <v>0</v>
       </c>
       <c r="L13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="1">
+        <v>38819</v>
+      </c>
+      <c r="C14" s="1">
+        <v>39022</v>
+      </c>
+      <c r="D14">
+        <v>1E-4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F14">
+        <v>1.3</v>
+      </c>
+      <c r="G14">
+        <v>0.3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
         <v>0</v>
       </c>
     </row>
@@ -22069,7 +22273,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22130,7 +22334,7 @@
         <v>-100000</v>
       </c>
       <c r="F2" s="13">
-        <v>10000000000</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -22339,6 +22543,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815097FF-3C85-429D-9589-E361EE038911}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22813,10 +23030,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23390,6 +23607,58 @@
         <v>0</v>
       </c>
       <c r="H21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="4">
+        <v>38833</v>
+      </c>
+      <c r="C22" s="7">
+        <v>39.782400000000003</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="4">
+        <v>38879</v>
+      </c>
+      <c r="C23" s="7">
+        <v>86.016000000000005</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <v>0</v>
       </c>
     </row>
@@ -23794,7 +24063,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -24765,7 +25034,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M8"/>
+      <selection activeCell="A7" sqref="A7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24945,7 +25214,28 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1">
+        <v>38842</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38482</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
       <c r="L7" t="s">
         <v>316</v>
       </c>
@@ -24953,7 +25243,28 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38863</v>
+      </c>
+      <c r="C8" s="1">
+        <v>38884</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
       <c r="L8" t="s">
         <v>307</v>
       </c>
